--- a/biology/Zoologie/Blanus/Blanus.xlsx
+++ b/biology/Zoologie/Blanus/Blanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blanus est un genre d'amphisbènes de la famille des Blanidae, le seul de cette famille.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sept espèces de ce genre se rencontrent :
 au Maroc ;
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles se caractérisent par une absence de pattes.
 </t>
@@ -582,9 +598,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 août 2014) :
 Blanus alexandri Sindaco, Kornilios, Sacchi &amp; Lymberakis, 2014
 Blanus aporus Werner, 1898
 Blanus cinereus (Vandelli, 1797)
@@ -621,7 +639,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anciennes classifications rattachaient le seul genre de cette famille à la famille des Amphisbaenidae.
 </t>
@@ -652,7 +672,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kearney, 2003 : Systematics of the Amphisbaenia (Lepidosauria: Squamata) based on morphological evidence from recent and fossil forms. Herpetological Monographs, vol. 17, p. 1-74.
 Wagler, 1830 : Natürliches System der Amphibien : mit vorangehender Classification der Säugethiere und Vögel : ein Beitrag zur vergleichenden Zoologie. Cotta, München, Stuttgart, and Tübingen, p. 1-354 (texte intégral).</t>
